--- a/Data/Data collected/Questionnaires_lables_old/2STAI_2025.xlsx
+++ b/Data/Data collected/Questionnaires_lables_old/2STAI_2025.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tulum/Dropbox/תואר פסיכולוגיה/תואר שני/תואר שני קלינית מחקרית/שיעורים - קלינית/מעבדה/תזה/Data/Data Collected/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tulum/Dropbox/Github/Creativity-in-ADHD/Data/Data collected/Questionnaires_lables_old/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E844E9D-7953-1041-80EA-29AE5A106A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9921F8E3-1B14-8D4E-8A10-F5D3705D2023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4614" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4614" uniqueCount="374">
   <si>
     <t>StartDate</t>
   </si>
@@ -1143,6 +1143,9 @@
   </si>
   <si>
     <t>R_4SvsUpkuSeXO3KY</t>
+  </si>
+  <si>
+    <t>vQtQiu</t>
   </si>
 </sst>
 </file>
@@ -1526,11 +1529,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BI90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="BI6" sqref="BI6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
@@ -12073,8 +12079,8 @@
       <c r="BH57">
         <v>27</v>
       </c>
-      <c r="BI57" s="2" t="s">
-        <v>132</v>
+      <c r="BI57" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="58" spans="1:61" ht="48" x14ac:dyDescent="0.2">
@@ -15588,8 +15594,8 @@
       <c r="BH76">
         <v>22</v>
       </c>
-      <c r="BI76" s="2" t="s">
-        <v>132</v>
+      <c r="BI76" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="77" spans="1:61" ht="48" x14ac:dyDescent="0.2">
@@ -18186,7 +18192,7 @@
   <autoFilter ref="A2:BI91" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C1:C90 D1:D90 G1:G90 I1:I90 J1:J90 K1:K90 L1:L90 M1:M90 P1:P90 Q1:Q90 R1:R90 S1:S90 T1:T90 U1:U90 V1:V90 W1:W90 X1:X90 Y1:Y90 Z1:Z90 AA1:AA90 AB1:AB90 AC1:AC90 AD1:AD90 AE1:AE90 AF1:AF90 AG1:AG90 AH1:AH90 AI1:AI90 AJ1:AJ90 AK1:AK90 AL1:AL90 AM1:AM90 AN1:AN90 AO1:AO90 AP1:AP90 AQ1:AQ90 AR1:AR90 AS1:AS90 AT1:AT90 AU1:AU90 AV1:AV90 AW1:AW90 AX1:AX90 AY1:AY90 AZ1:AZ90 BA1:BA90 BB1:BB90 BC1:BC90 BD1:BD90 BE1:BE90 BI1:BI90" numberStoredAsText="1"/>
+    <ignoredError sqref="C1:C90 D1:D90 G1:G90 I1:I90 J1:J90 K1:K90 L1:L90 M1:M90 P1:P90 Q1:Q90 R1:R90 S1:S90 T1:T90 U1:U90 V1:V90 W1:W90 X1:X90 Y1:Y90 Z1:Z90 AA1:AA90 AB1:AB90 AC1:AC90 AD1:AD90 AE1:AE90 AF1:AF90 AG1:AG90 AH1:AH90 AI1:AI90 AJ1:AJ90 AK1:AK90 AL1:AL90 AM1:AM90 AN1:AN90 AO1:AO90 AP1:AP90 AQ1:AQ90 AR1:AR90 AS1:AS90 AT1:AT90 AU1:AU90 AV1:AV90 AW1:AW90 AX1:AX90 AY1:AY90 AZ1:AZ90 BA1:BA90 BB1:BB90 BC1:BC90 BD1:BD90 BE1:BE90 BI1:BI56 BI58:BI75 BI77:BI90" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>